--- a/fluid.xlsx
+++ b/fluid.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloud\Escuela\UP\Simulacion\com139-class-master\Fluid_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D00D27-48BE-478E-AAE8-98287C2F62DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A9388-51C3-4F06-A702-2FA5FBE41E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D8E0FD60-090C-478E-A63C-0DEF49D7F201}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8E0FD60-090C-478E-A63C-0DEF49D7F201}"/>
   </bookViews>
   <sheets>
     <sheet name="Density" sheetId="1" r:id="rId1"/>
     <sheet name="Velocity" sheetId="2" r:id="rId2"/>
+    <sheet name="Object" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>PosX_Density</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>PosY</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -416,28 +420,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608E32EA-3BBE-4BCD-BF18-5750CEF35AA6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -449,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB2867-C5C9-4629-98FF-7138BC37AF36}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,28 +515,65 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D2">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD704A3E-4C08-4E27-8CBA-18C7AAFBD9F9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/fluid.xlsx
+++ b/fluid.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloud\Escuela\UP\Simulacion\com139-class-master\Fluid_Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722A9388-51C3-4F06-A702-2FA5FBE41E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA57C9-FEA0-48D1-831B-872E16F34AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8E0FD60-090C-478E-A63C-0DEF49D7F201}"/>
   </bookViews>
   <sheets>
     <sheet name="Density" sheetId="1" r:id="rId1"/>
     <sheet name="Velocity" sheetId="2" r:id="rId2"/>
-    <sheet name="Object" sheetId="3" r:id="rId3"/>
+    <sheet name="Color" sheetId="4" r:id="rId3"/>
+    <sheet name="Object" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>PosX_Density</t>
   </si>
@@ -69,14 +70,28 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>ColorSchema</t>
+  </si>
+  <si>
+    <t>cividis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608E32EA-3BBE-4BCD-BF18-5750CEF35AA6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,38 +455,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -479,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB2867-C5C9-4629-98FF-7138BC37AF36}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,27 +512,53 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -545,16 +568,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD704A3E-4C08-4E27-8CBA-18C7AAFBD9F9}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6752283-B835-4073-BE49-31D50532AAE8}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD704A3E-4C08-4E27-8CBA-18C7AAFBD9F9}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -565,16 +613,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
